--- a/Data/粉絲數/網路搜尋結果統計.xlsx
+++ b/Data/粉絲數/網路搜尋結果統計.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\Project\Designer-Toy-Market-Data-Analysis\Data\粉絲數\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CFCB3-75E0-4852-8FAE-21565CAF96CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
+    <sheet name="三個品牌網路搜尋量" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="75">
   <si>
     <t>網站</t>
   </si>
@@ -231,16 +238,26 @@
   <si>
     <t>迪士尼_2024</t>
   </si>
+  <si>
+    <t>threads.com</t>
+  </si>
+  <si>
+    <t>泡泡瑪特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POPMART</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -248,8 +265,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,17 +319,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +375,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -377,6 +409,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -411,9 +444,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,14 +620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -633,7 +667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -653,7 +687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -673,7 +707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -693,7 +727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -713,7 +747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -733,7 +767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -753,7 +787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -773,7 +807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -793,7 +827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -813,7 +847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -833,7 +867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -853,7 +887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -873,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -893,7 +927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -913,7 +947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -933,7 +967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -953,7 +987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -973,7 +1007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -993,7 +1027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1193,7 +1227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1447,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1473,7 +1507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +1527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1553,7 +1587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1573,7 +1607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1593,7 +1627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1633,7 +1667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1693,7 +1727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +1747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1753,7 +1787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +1807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1793,7 +1827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1813,7 +1847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1833,7 +1867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1913,7 +1947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1953,7 +1987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1973,7 +2007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2013,7 +2047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +2087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +2107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2133,7 +2167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2187,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2173,7 +2207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2193,7 +2227,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2253,7 +2287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +2307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2293,7 +2327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2313,7 +2347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2333,7 +2367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2373,7 +2407,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -2393,7 +2427,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +2447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2433,7 +2467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -2453,7 +2487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +2507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -2493,7 +2527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -2513,7 +2547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2533,7 +2567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +2587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2573,7 +2607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -2593,7 +2627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2633,7 +2667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -2653,7 +2687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -2673,7 +2707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -2693,7 +2727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -2713,7 +2747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2753,7 +2787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -2793,7 +2827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2833,7 +2867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -2853,7 +2887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -2873,7 +2907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -2893,7 +2927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2933,7 +2967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -2953,7 +2987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -2973,7 +3007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -2993,7 +3027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -3013,7 +3047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -3033,7 +3067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -3053,7 +3087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -3073,7 +3107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -3093,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -3113,7 +3147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3133,7 +3167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3153,7 +3187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -3173,7 +3207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -3193,7 +3227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -3213,7 +3247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -3253,7 +3287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -3273,7 +3307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -3293,7 +3327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -3313,7 +3347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3333,7 +3367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3353,7 +3387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -3373,7 +3407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3393,7 +3427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -3413,7 +3447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -3433,7 +3467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3453,7 +3487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -3473,7 +3507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -3493,7 +3527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -3513,7 +3547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -3533,7 +3567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -3553,7 +3587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3573,7 +3607,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -3613,7 +3647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3633,7 +3667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -3653,7 +3687,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3693,7 +3727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -3713,7 +3747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -3733,7 +3767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -3753,7 +3787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3773,7 +3807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -3793,7 +3827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3813,7 +3847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3833,7 +3867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -3853,7 +3887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -3873,7 +3907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -3893,7 +3927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3913,7 +3947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3933,7 +3967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3953,7 +3987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -3973,7 +4007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -3993,7 +4027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4047,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -4033,7 +4067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -4053,7 +4087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -4073,7 +4107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -4093,7 +4127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -4113,7 +4147,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -4153,7 +4187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -4173,7 +4207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -4193,7 +4227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -4213,7 +4247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -4233,7 +4267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -4253,7 +4287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -4273,7 +4307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -4293,7 +4327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -4313,7 +4347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -4333,7 +4367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -4353,7 +4387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -4373,7 +4407,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -4393,7 +4427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -4413,7 +4447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -4433,7 +4467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4453,7 +4487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -4473,7 +4507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -4493,7 +4527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -4513,7 +4547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -4533,7 +4567,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -4553,7 +4587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -4573,7 +4607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -4593,7 +4627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -4613,7 +4647,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -4633,7 +4667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -4653,7 +4687,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -4673,7 +4707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -4693,7 +4727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -4713,7 +4747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -4733,7 +4767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -4753,7 +4787,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4773,7 +4807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -4793,7 +4827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -4813,7 +4847,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -4833,7 +4867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -4853,7 +4887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -4873,7 +4907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -4893,7 +4927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -4913,7 +4947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -4933,7 +4967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -4953,7 +4987,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -4973,7 +5007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -4993,7 +5027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -5013,7 +5047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5033,7 +5067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -5053,7 +5087,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -5073,7 +5107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -5093,7 +5127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -5113,7 +5147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -5133,7 +5167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -5153,7 +5187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -5173,7 +5207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>10</v>
       </c>
@@ -5193,7 +5227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -5213,7 +5247,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -5233,7 +5267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -5253,7 +5287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -5273,7 +5307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -5293,7 +5327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -5313,7 +5347,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -5333,7 +5367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -5353,7 +5387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -5373,7 +5407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -5393,7 +5427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -5413,7 +5447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -5433,7 +5467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -5453,7 +5487,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -5473,7 +5507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -5493,7 +5527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -5513,7 +5547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -5533,7 +5567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -5553,7 +5587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -5573,7 +5607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -5593,7 +5627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -5613,7 +5647,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -5633,7 +5667,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -5653,7 +5687,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -5673,7 +5707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -5693,7 +5727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -5713,7 +5747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -5733,7 +5767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -5753,7 +5787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -5773,7 +5807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -5793,7 +5827,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -5813,7 +5847,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -5833,7 +5867,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +5887,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -5873,7 +5907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -5893,7 +5927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -5913,7 +5947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -5933,7 +5967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>10</v>
       </c>
@@ -5953,7 +5987,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -5973,7 +6007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -5993,7 +6027,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -6013,7 +6047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -6033,7 +6067,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -6053,7 +6087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -6073,7 +6107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -6093,7 +6127,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -6113,7 +6147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -6133,7 +6167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -6153,7 +6187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -6173,7 +6207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -6193,7 +6227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -6214,6 +6248,3372 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD49BBD-B585-408E-9460-F2EEA7A3E8F7}">
+  <dimension ref="A1:D239"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="J227" sqref="J227"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>724</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>490</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>165</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>65100</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>26300</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1650</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>618</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>513</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>71600</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>26500</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3670</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>605</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>925</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>423</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>101000</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>41100</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>9900</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>659</v>
+      </c>
+      <c r="C20">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2690</v>
+      </c>
+      <c r="C21">
+        <v>2023</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>663</v>
+      </c>
+      <c r="C22">
+        <v>2023</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>209000</v>
+      </c>
+      <c r="C23">
+        <v>2023</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>59100</v>
+      </c>
+      <c r="C24">
+        <v>2023</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>30500</v>
+      </c>
+      <c r="C25">
+        <v>2023</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>799</v>
+      </c>
+      <c r="C26">
+        <v>2024</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>3840</v>
+      </c>
+      <c r="C27">
+        <v>2024</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>749</v>
+      </c>
+      <c r="C28">
+        <v>2024</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>509000</v>
+      </c>
+      <c r="C29">
+        <v>2024</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>78700</v>
+      </c>
+      <c r="C30">
+        <v>2024</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>66600</v>
+      </c>
+      <c r="C31">
+        <v>2024</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>613</v>
+      </c>
+      <c r="C32">
+        <v>2020</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>470</v>
+      </c>
+      <c r="C33">
+        <v>2020</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>314</v>
+      </c>
+      <c r="C34">
+        <v>2020</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>402000</v>
+      </c>
+      <c r="C35">
+        <v>2020</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>8120000</v>
+      </c>
+      <c r="C36">
+        <v>2020</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>407000</v>
+      </c>
+      <c r="C37">
+        <v>2020</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>843</v>
+      </c>
+      <c r="C38">
+        <v>2021</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>821</v>
+      </c>
+      <c r="C39">
+        <v>2021</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>324</v>
+      </c>
+      <c r="C40">
+        <v>2021</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>466000</v>
+      </c>
+      <c r="C41">
+        <v>2021</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>9190000</v>
+      </c>
+      <c r="C42">
+        <v>2021</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>795000</v>
+      </c>
+      <c r="C43">
+        <v>2021</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>1320</v>
+      </c>
+      <c r="C44">
+        <v>2022</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>1020</v>
+      </c>
+      <c r="C45">
+        <v>2022</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>395</v>
+      </c>
+      <c r="C46">
+        <v>2022</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>611000</v>
+      </c>
+      <c r="C47">
+        <v>2022</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>11600000</v>
+      </c>
+      <c r="C48">
+        <v>2022</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>3680000</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>2150</v>
+      </c>
+      <c r="C50">
+        <v>2023</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>2220</v>
+      </c>
+      <c r="C51">
+        <v>2023</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>639</v>
+      </c>
+      <c r="C52">
+        <v>2023</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>1720000</v>
+      </c>
+      <c r="C53">
+        <v>2023</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>15400000</v>
+      </c>
+      <c r="C54">
+        <v>2023</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>7280000</v>
+      </c>
+      <c r="C55">
+        <v>2023</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>1940</v>
+      </c>
+      <c r="C56">
+        <v>2024</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>3190</v>
+      </c>
+      <c r="C57">
+        <v>2024</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>707</v>
+      </c>
+      <c r="C58">
+        <v>2024</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>4870000</v>
+      </c>
+      <c r="C59">
+        <v>2024</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>18200000</v>
+      </c>
+      <c r="C60">
+        <v>2024</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>8470000</v>
+      </c>
+      <c r="C61">
+        <v>2024</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2020</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>2020</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>2020</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2020</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>2020</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>77</v>
+      </c>
+      <c r="C67">
+        <v>2020</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2020</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>165000</v>
+      </c>
+      <c r="C69">
+        <v>2020</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>120000</v>
+      </c>
+      <c r="C70">
+        <v>2020</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>264000</v>
+      </c>
+      <c r="C71">
+        <v>2020</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>2021</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>2021</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>2021</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>2021</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>2021</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>2021</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>2021</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>184000</v>
+      </c>
+      <c r="C79">
+        <v>2021</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>126000</v>
+      </c>
+      <c r="C80">
+        <v>2021</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>667000</v>
+      </c>
+      <c r="C81">
+        <v>2021</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>2022</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>2022</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>37</v>
+      </c>
+      <c r="C84">
+        <v>2022</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>2022</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86">
+        <v>292</v>
+      </c>
+      <c r="C86">
+        <v>2022</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>89</v>
+      </c>
+      <c r="C87">
+        <v>2022</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>2022</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>276000</v>
+      </c>
+      <c r="C89">
+        <v>2022</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>161000</v>
+      </c>
+      <c r="C90">
+        <v>2022</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <v>2620000</v>
+      </c>
+      <c r="C91">
+        <v>2022</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>2023</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>2023</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94">
+        <v>41</v>
+      </c>
+      <c r="C94">
+        <v>2023</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>976</v>
+      </c>
+      <c r="C95">
+        <v>2023</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>357</v>
+      </c>
+      <c r="C96">
+        <v>2023</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>172</v>
+      </c>
+      <c r="C97">
+        <v>2023</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>2023</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>702000</v>
+      </c>
+      <c r="C99">
+        <v>2023</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>217000</v>
+      </c>
+      <c r="C100">
+        <v>2023</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>8520000</v>
+      </c>
+      <c r="C101">
+        <v>2023</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>36</v>
+      </c>
+      <c r="C102">
+        <v>2024</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>2024</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104">
+        <v>39</v>
+      </c>
+      <c r="C104">
+        <v>2024</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>32</v>
+      </c>
+      <c r="C105">
+        <v>2024</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>252</v>
+      </c>
+      <c r="C106">
+        <v>2024</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>1140</v>
+      </c>
+      <c r="C107">
+        <v>2024</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>2024</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>3630000</v>
+      </c>
+      <c r="C109">
+        <v>2024</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>367000</v>
+      </c>
+      <c r="C110">
+        <v>2024</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111">
+        <v>10400000</v>
+      </c>
+      <c r="C111">
+        <v>2024</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>613</v>
+      </c>
+      <c r="C112">
+        <v>2020</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>470</v>
+      </c>
+      <c r="C113">
+        <v>2020</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>322</v>
+      </c>
+      <c r="C114">
+        <v>2020</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115">
+        <v>402000</v>
+      </c>
+      <c r="C115">
+        <v>2020</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>407000</v>
+      </c>
+      <c r="C116">
+        <v>2020</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>8120000</v>
+      </c>
+      <c r="C117">
+        <v>2020</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>843</v>
+      </c>
+      <c r="C118">
+        <v>2021</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>821</v>
+      </c>
+      <c r="C119">
+        <v>2021</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>324</v>
+      </c>
+      <c r="C120">
+        <v>2021</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121">
+        <v>466000</v>
+      </c>
+      <c r="C121">
+        <v>2021</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122">
+        <v>795000</v>
+      </c>
+      <c r="C122">
+        <v>2021</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123">
+        <v>9190000</v>
+      </c>
+      <c r="C123">
+        <v>2021</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>1320</v>
+      </c>
+      <c r="C124">
+        <v>2022</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>1020</v>
+      </c>
+      <c r="C125">
+        <v>2022</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>395</v>
+      </c>
+      <c r="C126">
+        <v>2022</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>614000</v>
+      </c>
+      <c r="C127">
+        <v>2022</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128">
+        <v>3680000</v>
+      </c>
+      <c r="C128">
+        <v>2022</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129">
+        <v>11600000</v>
+      </c>
+      <c r="C129">
+        <v>2022</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>2150</v>
+      </c>
+      <c r="C130">
+        <v>2023</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>2210</v>
+      </c>
+      <c r="C131">
+        <v>2023</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132">
+        <v>639</v>
+      </c>
+      <c r="C132">
+        <v>2023</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133">
+        <v>1720000</v>
+      </c>
+      <c r="C133">
+        <v>2023</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134">
+        <v>7220000</v>
+      </c>
+      <c r="C134">
+        <v>2023</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135">
+        <v>15400000</v>
+      </c>
+      <c r="C135">
+        <v>2023</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>1920</v>
+      </c>
+      <c r="C136">
+        <v>2024</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>3230</v>
+      </c>
+      <c r="C137">
+        <v>2024</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>707</v>
+      </c>
+      <c r="C138">
+        <v>2024</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>4870000</v>
+      </c>
+      <c r="C139">
+        <v>2024</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>8480000</v>
+      </c>
+      <c r="C140">
+        <v>2024</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>18200000</v>
+      </c>
+      <c r="C141">
+        <v>2024</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>1330</v>
+      </c>
+      <c r="C142">
+        <v>2020</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>2020</v>
+      </c>
+      <c r="D143" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144">
+        <v>280</v>
+      </c>
+      <c r="C144">
+        <v>2020</v>
+      </c>
+      <c r="D144" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145">
+        <v>522</v>
+      </c>
+      <c r="C145">
+        <v>2020</v>
+      </c>
+      <c r="D145" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146">
+        <v>376</v>
+      </c>
+      <c r="C146">
+        <v>2020</v>
+      </c>
+      <c r="D146" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>202</v>
+      </c>
+      <c r="C147">
+        <v>2020</v>
+      </c>
+      <c r="D147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>65</v>
+      </c>
+      <c r="C148">
+        <v>2020</v>
+      </c>
+      <c r="D148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>18600</v>
+      </c>
+      <c r="C149">
+        <v>2020</v>
+      </c>
+      <c r="D149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150">
+        <v>6640</v>
+      </c>
+      <c r="C150">
+        <v>2020</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151">
+        <v>1440</v>
+      </c>
+      <c r="C151">
+        <v>2020</v>
+      </c>
+      <c r="D151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <v>1390</v>
+      </c>
+      <c r="C152">
+        <v>2021</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>2021</v>
+      </c>
+      <c r="D153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154">
+        <v>275</v>
+      </c>
+      <c r="C154">
+        <v>2021</v>
+      </c>
+      <c r="D154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>162</v>
+      </c>
+      <c r="C155">
+        <v>2021</v>
+      </c>
+      <c r="D155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156">
+        <v>567</v>
+      </c>
+      <c r="C156">
+        <v>2021</v>
+      </c>
+      <c r="D156" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157">
+        <v>280</v>
+      </c>
+      <c r="C157">
+        <v>2021</v>
+      </c>
+      <c r="D157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158">
+        <v>143</v>
+      </c>
+      <c r="C158">
+        <v>2021</v>
+      </c>
+      <c r="D158" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159">
+        <v>24100</v>
+      </c>
+      <c r="C159">
+        <v>2021</v>
+      </c>
+      <c r="D159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160">
+        <v>8740</v>
+      </c>
+      <c r="C160">
+        <v>2021</v>
+      </c>
+      <c r="D160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161">
+        <v>3460</v>
+      </c>
+      <c r="C161">
+        <v>2021</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>1770</v>
+      </c>
+      <c r="C162">
+        <v>2022</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163">
+        <v>41</v>
+      </c>
+      <c r="C163">
+        <v>2022</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164">
+        <v>320</v>
+      </c>
+      <c r="C164">
+        <v>2022</v>
+      </c>
+      <c r="D164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165">
+        <v>82</v>
+      </c>
+      <c r="C165">
+        <v>2022</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166">
+        <v>840</v>
+      </c>
+      <c r="C166">
+        <v>2022</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167">
+        <v>368</v>
+      </c>
+      <c r="C167">
+        <v>2022</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168">
+        <v>109</v>
+      </c>
+      <c r="C168">
+        <v>2022</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169">
+        <v>33900</v>
+      </c>
+      <c r="C169">
+        <v>2022</v>
+      </c>
+      <c r="D169" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170">
+        <v>12400</v>
+      </c>
+      <c r="C170">
+        <v>2022</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171">
+        <v>13400</v>
+      </c>
+      <c r="C171">
+        <v>2022</v>
+      </c>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>1540</v>
+      </c>
+      <c r="C172">
+        <v>2023</v>
+      </c>
+      <c r="D172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173">
+        <v>68</v>
+      </c>
+      <c r="C173">
+        <v>2023</v>
+      </c>
+      <c r="D173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>396</v>
+      </c>
+      <c r="C174">
+        <v>2023</v>
+      </c>
+      <c r="D174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175">
+        <v>139</v>
+      </c>
+      <c r="C175">
+        <v>2023</v>
+      </c>
+      <c r="D175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>886</v>
+      </c>
+      <c r="C176">
+        <v>2023</v>
+      </c>
+      <c r="D176" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>584</v>
+      </c>
+      <c r="C177">
+        <v>2023</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178">
+        <v>122</v>
+      </c>
+      <c r="C178">
+        <v>2023</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>74600</v>
+      </c>
+      <c r="C179">
+        <v>2023</v>
+      </c>
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180">
+        <v>18500</v>
+      </c>
+      <c r="C180">
+        <v>2023</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181">
+        <v>57600</v>
+      </c>
+      <c r="C181">
+        <v>2023</v>
+      </c>
+      <c r="D181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182">
+        <v>1760</v>
+      </c>
+      <c r="C182">
+        <v>2024</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183">
+        <v>108</v>
+      </c>
+      <c r="C183">
+        <v>2024</v>
+      </c>
+      <c r="D183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184">
+        <v>533</v>
+      </c>
+      <c r="C184">
+        <v>2024</v>
+      </c>
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185">
+        <v>182</v>
+      </c>
+      <c r="C185">
+        <v>2024</v>
+      </c>
+      <c r="D185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186">
+        <v>2210</v>
+      </c>
+      <c r="C186">
+        <v>2024</v>
+      </c>
+      <c r="D186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>1900</v>
+      </c>
+      <c r="C187">
+        <v>2024</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188">
+        <v>243</v>
+      </c>
+      <c r="C188">
+        <v>2024</v>
+      </c>
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189">
+        <v>215000</v>
+      </c>
+      <c r="C189">
+        <v>2024</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>24900</v>
+      </c>
+      <c r="C190">
+        <v>2024</v>
+      </c>
+      <c r="D190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191">
+        <v>148000</v>
+      </c>
+      <c r="C191">
+        <v>2024</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192">
+        <v>1540</v>
+      </c>
+      <c r="C192">
+        <v>2020</v>
+      </c>
+      <c r="D192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193">
+        <v>1350</v>
+      </c>
+      <c r="C193">
+        <v>2020</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <v>202</v>
+      </c>
+      <c r="C194">
+        <v>2020</v>
+      </c>
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <v>3220000</v>
+      </c>
+      <c r="C195">
+        <v>2020</v>
+      </c>
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196">
+        <v>16400000</v>
+      </c>
+      <c r="C196">
+        <v>2020</v>
+      </c>
+      <c r="D196" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197">
+        <v>2280000</v>
+      </c>
+      <c r="C197">
+        <v>2020</v>
+      </c>
+      <c r="D197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198">
+        <v>1040</v>
+      </c>
+      <c r="C198">
+        <v>2021</v>
+      </c>
+      <c r="D198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199">
+        <v>2000</v>
+      </c>
+      <c r="C199">
+        <v>2021</v>
+      </c>
+      <c r="D199" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>339</v>
+      </c>
+      <c r="C200">
+        <v>2021</v>
+      </c>
+      <c r="D200" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>3230000</v>
+      </c>
+      <c r="C201">
+        <v>2021</v>
+      </c>
+      <c r="D201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202">
+        <v>17000000</v>
+      </c>
+      <c r="C202">
+        <v>2021</v>
+      </c>
+      <c r="D202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203">
+        <v>4550000</v>
+      </c>
+      <c r="C203">
+        <v>2021</v>
+      </c>
+      <c r="D203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204">
+        <v>1230</v>
+      </c>
+      <c r="C204">
+        <v>2022</v>
+      </c>
+      <c r="D204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205">
+        <v>3150</v>
+      </c>
+      <c r="C205">
+        <v>2022</v>
+      </c>
+      <c r="D205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <v>689</v>
+      </c>
+      <c r="C206">
+        <v>2022</v>
+      </c>
+      <c r="D206" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207">
+        <v>4260000</v>
+      </c>
+      <c r="C207">
+        <v>2022</v>
+      </c>
+      <c r="D207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208">
+        <v>21300000</v>
+      </c>
+      <c r="C208">
+        <v>2022</v>
+      </c>
+      <c r="D208" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209">
+        <v>10200000</v>
+      </c>
+      <c r="C209">
+        <v>2022</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210">
+        <v>1120</v>
+      </c>
+      <c r="C210">
+        <v>2023</v>
+      </c>
+      <c r="D210" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211">
+        <v>6910</v>
+      </c>
+      <c r="C211">
+        <v>2023</v>
+      </c>
+      <c r="D211" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>1320</v>
+      </c>
+      <c r="C212">
+        <v>2023</v>
+      </c>
+      <c r="D212" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213">
+        <v>7830000</v>
+      </c>
+      <c r="C213">
+        <v>2023</v>
+      </c>
+      <c r="D213" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214">
+        <v>25700000</v>
+      </c>
+      <c r="C214">
+        <v>2023</v>
+      </c>
+      <c r="D214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215">
+        <v>84600000</v>
+      </c>
+      <c r="C215">
+        <v>2023</v>
+      </c>
+      <c r="D215" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>1420</v>
+      </c>
+      <c r="C216">
+        <v>2024</v>
+      </c>
+      <c r="D216" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217">
+        <v>10500</v>
+      </c>
+      <c r="C217">
+        <v>2024</v>
+      </c>
+      <c r="D217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218">
+        <v>1320</v>
+      </c>
+      <c r="C218">
+        <v>2024</v>
+      </c>
+      <c r="D218" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219">
+        <v>16200000</v>
+      </c>
+      <c r="C219">
+        <v>2024</v>
+      </c>
+      <c r="D219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220">
+        <v>31000000</v>
+      </c>
+      <c r="C220">
+        <v>2024</v>
+      </c>
+      <c r="D220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221">
+        <v>86800000</v>
+      </c>
+      <c r="C221">
+        <v>2024</v>
+      </c>
+      <c r="D221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>72</v>
+      </c>
+      <c r="B222">
+        <v>25</v>
+      </c>
+      <c r="C222">
+        <v>2022</v>
+      </c>
+      <c r="D222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>72</v>
+      </c>
+      <c r="B223">
+        <v>7720</v>
+      </c>
+      <c r="C223">
+        <v>2023</v>
+      </c>
+      <c r="D223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>72</v>
+      </c>
+      <c r="B224">
+        <v>155000</v>
+      </c>
+      <c r="C224">
+        <v>2024</v>
+      </c>
+      <c r="D224" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>72</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>2022</v>
+      </c>
+      <c r="D225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>72</v>
+      </c>
+      <c r="B226">
+        <v>6540</v>
+      </c>
+      <c r="C226">
+        <v>2023</v>
+      </c>
+      <c r="D226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>72</v>
+      </c>
+      <c r="B227">
+        <v>128000</v>
+      </c>
+      <c r="C227">
+        <v>2024</v>
+      </c>
+      <c r="D227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>72</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>2022</v>
+      </c>
+      <c r="D228" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>72</v>
+      </c>
+      <c r="B229">
+        <v>25</v>
+      </c>
+      <c r="C229">
+        <v>2023</v>
+      </c>
+      <c r="D229" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>72</v>
+      </c>
+      <c r="B230">
+        <v>3310</v>
+      </c>
+      <c r="C230">
+        <v>2024</v>
+      </c>
+      <c r="D230" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>72</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>2022</v>
+      </c>
+      <c r="D231" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>72</v>
+      </c>
+      <c r="B232">
+        <v>6830</v>
+      </c>
+      <c r="C232">
+        <v>2023</v>
+      </c>
+      <c r="D232" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>72</v>
+      </c>
+      <c r="B233">
+        <v>129000</v>
+      </c>
+      <c r="C233">
+        <v>2024</v>
+      </c>
+      <c r="D233" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>72</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>2022</v>
+      </c>
+      <c r="D234" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>72</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>2023</v>
+      </c>
+      <c r="D235" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>72</v>
+      </c>
+      <c r="B236">
+        <v>2080</v>
+      </c>
+      <c r="C236">
+        <v>2024</v>
+      </c>
+      <c r="D236" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>72</v>
+      </c>
+      <c r="B237">
+        <v>24</v>
+      </c>
+      <c r="C237">
+        <v>2022</v>
+      </c>
+      <c r="D237" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>72</v>
+      </c>
+      <c r="B238">
+        <v>7570</v>
+      </c>
+      <c r="C238">
+        <v>2023</v>
+      </c>
+      <c r="D238" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>72</v>
+      </c>
+      <c r="B239">
+        <v>155000</v>
+      </c>
+      <c r="C239">
+        <v>2024</v>
+      </c>
+      <c r="D239" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>